--- a/DataFiles/REMS2020_Template_3_Data.xlsx
+++ b/DataFiles/REMS2020_Template_3_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqmstow1\Documents\GitHub\REMS2020\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqmstow1\Documents\REMS - Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <sheet name="SoilLayerDatas" sheetId="7" r:id="rId5"/>
     <sheet name="Stats" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="92512" iterate="1" iterateCount="1"/>
+  <calcPr calcId="92512"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>ExperimentInfoID</t>
-  </si>
-  <si>
     <t>HarvestId</t>
   </si>
   <si>
@@ -83,6 +80,15 @@
     <t>TemperatureAverage</t>
   </si>
   <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>Alice Springs</t>
+  </si>
+  <si>
+    <t>Kalgoorlie</t>
+  </si>
+  <si>
     <t>SoilDataId</t>
   </si>
   <si>
@@ -101,13 +107,16 @@
     <t>DepthTo</t>
   </si>
   <si>
-    <t>StatsId</t>
-  </si>
-  <si>
     <t>UnitId</t>
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>ExperimentInfoId</t>
+  </si>
+  <si>
+    <t>StatId</t>
   </si>
 </sst>
 </file>
@@ -606,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -619,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>4</v>
@@ -632,6 +641,38 @@
       </c>
       <c r="E1" s="10" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -647,50 +688,74 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -708,9 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -724,35 +787,50 @@
         <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="16"/>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="16"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -763,11 +841,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -778,19 +854,63 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -818,46 +938,82 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20">
+        <v>2</v>
+      </c>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20">
+        <v>2</v>
+      </c>
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -872,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -887,16 +1043,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
@@ -908,7 +1064,63 @@
         <v>2</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
